--- a/Fifth_Match/5.RM3-LP0 Stat 21.8.18.xlsx
+++ b/Fifth_Match/5.RM3-LP0 Stat 21.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -325,8 +325,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,14 +1149,14 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.91"/>
@@ -1164,7 +1164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.37"/>
@@ -1222,7 +1222,7 @@
         <v>0.773</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.573045267489712</v>
+        <v>1.14609053497942</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>0.493827160493827</v>
@@ -1260,7 +1260,7 @@
         <v>0.727</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.751445086705202</v>
+        <v>1.5028901734104</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>0.803468208092485</v>
